--- a/Join-Selectivities.xlsx
+++ b/Join-Selectivities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsiri\OneDrive\Desktop\TRI 1 2024\ENGR489\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D699AE6-42DB-4B32-9FD1-377BB22A780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DE12D2-E4B2-4BFA-A495-AC9ECD1F303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8AE4B8C9-172F-4A5D-BD97-0477AA53792C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
   <si>
     <t>aka_title</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>kind_type</t>
-  </si>
-  <si>
-    <t>0,1428</t>
   </si>
   <si>
     <t>link_type</t>
@@ -523,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C83C340-AE64-483E-BC19-F0F3B75A8932}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,13 +815,13 @@
       <c r="D17" s="1">
         <v>515643</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
+      <c r="E17" s="2">
+        <v>0.14280000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -878,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
         <v>24972571</v>
@@ -963,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1">
         <v>2280011</v>
@@ -1028,7 +1025,7 @@
     </row>
     <row r="30" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
@@ -1045,7 +1042,7 @@
     </row>
     <row r="31" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
@@ -1062,7 +1059,7 @@
     </row>
     <row r="32" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -1079,10 +1076,10 @@
     </row>
     <row r="33" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
         <v>4784207</v>
@@ -1096,10 +1093,10 @@
     </row>
     <row r="34" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
         <v>4784207</v>
@@ -1113,7 +1110,7 @@
     </row>
     <row r="35" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="36" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
@@ -1150,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
         <v>7200278</v>
@@ -1201,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
         <v>7200278</v>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
@@ -1266,7 +1263,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
@@ -1283,7 +1280,7 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
@@ -1300,7 +1297,7 @@
     </row>
     <row r="46" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
@@ -1317,7 +1314,7 @@
     </row>
     <row r="47" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
@@ -1334,10 +1331,10 @@
     </row>
     <row r="48" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1">
         <v>4189165</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="49" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>2</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="50" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>3</v>
@@ -1383,9 +1380,9 @@
         <v>6.8800000000000002E-9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4</v>
